--- a/data/regional-accounts/regional-accounts-aggregated.xlsx
+++ b/data/regional-accounts/regional-accounts-aggregated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\swedish-regional-accounts\data\regional-accounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85CD362-0A99-4D64-970D-6830DA3F2E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AB6173-2B17-4A66-9995-6480CB21CC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{55584943-A929-4C30-8EEB-8B09B8B15F6D}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1360,7 +1359,7 @@
   <dimension ref="A1:F3193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4764,7 +4763,7 @@
         <v>29</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E170">
         <v>0.24128967030169285</v>
@@ -4784,7 +4783,7 @@
         <v>29</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E171">
         <v>2.8442006659899721E-2</v>
@@ -4804,7 +4803,7 @@
         <v>29</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E172">
         <v>3.8771245789336314E-2</v>
@@ -4824,7 +4823,7 @@
         <v>29</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E173">
         <v>2.6696988615113666E-2</v>
@@ -4844,7 +4843,7 @@
         <v>29</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E174">
         <v>3.899821854484592E-2</v>
@@ -4864,7 +4863,7 @@
         <v>29</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E175">
         <v>1.5475293728128307E-2</v>
@@ -4884,7 +4883,7 @@
         <v>29</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E176">
         <v>2.720181005075412E-2</v>
@@ -4904,7 +4903,7 @@
         <v>29</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E177">
         <v>7.9870313859019826E-3</v>
@@ -4924,7 +4923,7 @@
         <v>29</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E178">
         <v>3.7280658388196095E-2</v>
@@ -4944,7 +4943,7 @@
         <v>29</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E179">
         <v>4.2146440231238293E-2</v>
@@ -4964,7 +4963,7 @@
         <v>29</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E180">
         <v>3.849104661298957E-2</v>
@@ -4984,7 +4983,7 @@
         <v>29</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E181">
         <v>5.089485116939671E-2</v>
@@ -5004,7 +5003,7 @@
         <v>29</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E182">
         <v>4.4194820984882539E-2</v>
@@ -5024,7 +5023,7 @@
         <v>29</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E183">
         <v>3.6048101662075102E-2</v>
@@ -5044,7 +5043,7 @@
         <v>29</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E184">
         <v>3.2095721389461769E-2</v>
@@ -5064,7 +5063,7 @@
         <v>29</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E185">
         <v>2.0737992767062969E-2</v>
@@ -5084,7 +5083,7 @@
         <v>29</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E186">
         <v>6.8279572590849408E-2</v>
@@ -5104,7 +5103,7 @@
         <v>29</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E187">
         <v>5.830111796150856E-2</v>
@@ -5124,7 +5123,7 @@
         <v>29</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E188">
         <v>3.0446547196473807E-2</v>
@@ -5144,7 +5143,7 @@
         <v>29</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E189">
         <v>9.0334895921719699E-2</v>
@@ -5164,7 +5163,7 @@
         <v>29</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E190">
         <v>2.6568364976464216E-2</v>
@@ -5184,7 +5183,7 @@
         <v>29</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E191">
         <v>9.5054284778061261E-3</v>
@@ -5204,7 +5203,7 @@
         <v>29</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E192">
         <v>9.5336484629365194E-3</v>
@@ -5224,7 +5223,7 @@
         <v>29</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E193">
         <v>4.8202373337165039E-3</v>
@@ -6204,7 +6203,7 @@
         <v>29</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E242">
         <v>0.2661167526247491</v>
@@ -6224,7 +6223,7 @@
         <v>29</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E243">
         <v>3.8531318803016759E-2</v>
@@ -6244,7 +6243,7 @@
         <v>29</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E244">
         <v>9.1184320748670888E-2</v>
@@ -6264,7 +6263,7 @@
         <v>29</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E245">
         <v>3.0866070518404037E-2</v>
@@ -6284,7 +6283,7 @@
         <v>29</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E246">
         <v>2.0736723275556021E-2</v>
@@ -6304,7 +6303,7 @@
         <v>29</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E247">
         <v>1.4927917560522395E-2</v>
@@ -6324,7 +6323,7 @@
         <v>29</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E248">
         <v>2.8695254514915048E-2</v>
@@ -6344,7 +6343,7 @@
         <v>29</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E249">
         <v>3.9289531783942136E-2</v>
@@ -6364,7 +6363,7 @@
         <v>29</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E250">
         <v>2.1898581213449096E-2</v>
@@ -6384,7 +6383,7 @@
         <v>29</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E251">
         <v>2.8914850630330394E-2</v>
@@ -6404,7 +6403,7 @@
         <v>29</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E252">
         <v>5.2726637723650195E-2</v>
@@ -6424,7 +6423,7 @@
         <v>29</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E253">
         <v>3.010655188852164E-2</v>
@@ -6444,7 +6443,7 @@
         <v>29</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E254">
         <v>3.6847805602119615E-2</v>
@@ -6464,7 +6463,7 @@
         <v>29</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E255">
         <v>2.1252626114122847E-2</v>
@@ -6484,7 +6483,7 @@
         <v>29</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E256">
         <v>2.9720147587701064E-2</v>
@@ -6504,7 +6503,7 @@
         <v>29</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E257">
         <v>2.4986842112925477E-2</v>
@@ -6524,7 +6523,7 @@
         <v>29</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E258">
         <v>6.2290573652684818E-2</v>
@@ -6544,7 +6543,7 @@
         <v>29</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E259">
         <v>4.5009731861557017E-2</v>
@@ -6564,7 +6563,7 @@
         <v>29</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E260">
         <v>2.740758575063924E-2</v>
@@ -6584,7 +6583,7 @@
         <v>29</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E261">
         <v>7.1141700550036935E-2</v>
@@ -6604,7 +6603,7 @@
         <v>29</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E262">
         <v>1.1054768755500342E-2</v>
@@ -6624,7 +6623,7 @@
         <v>29</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E263">
         <v>1.0395181283320558E-2</v>
@@ -6644,7 +6643,7 @@
         <v>29</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E264">
         <v>6.8107867362668488E-3</v>
@@ -6664,7 +6663,7 @@
         <v>29</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E265">
         <v>1.6866625244603861E-2</v>
@@ -6684,7 +6683,7 @@
         <v>29</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E266">
         <v>1.2230552299747009E-2</v>
@@ -6704,7 +6703,7 @@
         <v>29</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E267">
         <v>5.2617571458787787E-2</v>
@@ -6724,7 +6723,7 @@
         <v>29</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E268">
         <v>4.0668031192150712E-2</v>
@@ -6744,7 +6743,7 @@
         <v>29</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E269">
         <v>1.8285808443478754E-2</v>
@@ -6764,7 +6763,7 @@
         <v>29</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E270">
         <v>6.9899067220975351E-3</v>
@@ -6784,7 +6783,7 @@
         <v>29</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E271">
         <v>1.2672620662889515E-2</v>
@@ -6804,7 +6803,7 @@
         <v>29</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E272">
         <v>9.1992660705858143E-3</v>
@@ -6824,7 +6823,7 @@
         <v>29</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E273">
         <v>5.4373905593848495E-3</v>
@@ -6844,7 +6843,7 @@
         <v>29</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E274">
         <v>1.1619655337748501E-3</v>
@@ -6864,7 +6863,7 @@
         <v>29</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E275">
         <v>6.6047201971007009E-3</v>
@@ -6884,7 +6883,7 @@
         <v>29</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E276">
         <v>5.9713066504700105E-4</v>
@@ -6904,7 +6903,7 @@
         <v>29</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E277">
         <v>5.961693443271612E-4</v>
@@ -6924,7 +6923,7 @@
         <v>29</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E278">
         <v>2.1225694471267058E-4</v>
@@ -6944,7 +6943,7 @@
         <v>29</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E279">
         <v>8.6192934606325461E-3</v>
@@ -6964,7 +6963,7 @@
         <v>29</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E280">
         <v>4.6797882218001675E-3</v>
@@ -6984,7 +6983,7 @@
         <v>29</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E281">
         <v>4.6002457579133099E-2</v>
@@ -7004,7 +7003,7 @@
         <v>29</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E282">
         <v>0.14182421267635503</v>
@@ -7024,7 +7023,7 @@
         <v>29</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E283">
         <v>5.6135732995874488E-2</v>
@@ -7044,7 +7043,7 @@
         <v>29</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E284">
         <v>0.10256549914361705</v>
@@ -7064,7 +7063,7 @@
         <v>29</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E285">
         <v>6.2279929917847227E-2</v>
@@ -7084,7 +7083,7 @@
         <v>29</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E286">
         <v>2.4717966093759192E-2</v>
@@ -7104,7 +7103,7 @@
         <v>29</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E287">
         <v>1.5154420907009488E-2</v>
@@ -7124,7 +7123,7 @@
         <v>29</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E288">
         <v>7.0630380968693248E-3</v>
@@ -7144,7 +7143,7 @@
         <v>29</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E289">
         <v>1.0307382093924582E-2</v>
@@ -10524,7 +10523,7 @@
         <v>29</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E458">
         <v>0.2963463135238133</v>
@@ -10544,7 +10543,7 @@
         <v>29</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E459">
         <v>6.2545576403937708E-2</v>
@@ -10564,7 +10563,7 @@
         <v>29</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E460">
         <v>7.6234766933725676E-2</v>
@@ -10584,7 +10583,7 @@
         <v>29</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E461">
         <v>6.7284774699820304E-2</v>
@@ -10604,7 +10603,7 @@
         <v>29</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E462">
         <v>3.0638955262356285E-2</v>
@@ -10624,7 +10623,7 @@
         <v>29</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E463">
         <v>3.1388405708067918E-2</v>
@@ -10644,7 +10643,7 @@
         <v>29</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E464">
         <v>4.4284785554126106E-2</v>
@@ -10664,7 +10663,7 @@
         <v>29</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E465">
         <v>6.1733550094502827E-2</v>
@@ -10684,7 +10683,7 @@
         <v>29</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E466">
         <v>9.2116328353618146E-2</v>
@@ -10704,7 +10703,7 @@
         <v>29</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E467">
         <v>4.4799842735266271E-2</v>
@@ -10724,7 +10723,7 @@
         <v>29</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E468">
         <v>6.5333428939900559E-2</v>
@@ -10744,7 +10743,7 @@
         <v>29</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E469">
         <v>3.2371448638569403E-2</v>
@@ -10764,7 +10763,7 @@
         <v>29</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E470">
         <v>8.8216893320123432E-2</v>
@@ -10784,7 +10783,7 @@
         <v>29</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E471">
         <v>2.8792782236591759E-2</v>
@@ -10804,7 +10803,7 @@
         <v>29</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E472">
         <v>2.7243627141501449E-2</v>
@@ -10824,7 +10823,7 @@
         <v>29</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E473">
         <v>1.8814427073953529E-2</v>
@@ -10844,7 +10843,7 @@
         <v>29</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E474">
         <v>3.9619073147106144E-2</v>
@@ -10864,7 +10863,7 @@
         <v>29</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E475">
         <v>5.9472473711758393E-2</v>
@@ -10884,7 +10883,7 @@
         <v>29</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E476">
         <v>2.202956223994797E-2</v>
@@ -10904,7 +10903,7 @@
         <v>29</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E477">
         <v>6.2383391392210531E-2</v>
@@ -10924,7 +10923,7 @@
         <v>29</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E478">
         <v>4.0859262668042011E-2</v>
@@ -10944,7 +10943,7 @@
         <v>29</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E479">
         <v>1.769801405150943E-2</v>
@@ -10964,7 +10963,7 @@
         <v>29</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E480">
         <v>3.3017561711064979E-2</v>
@@ -10984,7 +10983,7 @@
         <v>29</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E481">
         <v>2.6280935662898706E-2</v>
@@ -11964,7 +11963,7 @@
         <v>29</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E530">
         <v>0.32034206547121769</v>
@@ -11984,7 +11983,7 @@
         <v>29</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E531">
         <v>6.6002530391557637E-2</v>
@@ -12004,7 +12003,7 @@
         <v>29</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E532">
         <v>7.7999010638103189E-2</v>
@@ -12024,7 +12023,7 @@
         <v>29</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E533">
         <v>6.8243277660204188E-2</v>
@@ -12044,7 +12043,7 @@
         <v>29</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E534">
         <v>2.9091730933309339E-2</v>
@@ -12064,7 +12063,7 @@
         <v>29</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E535">
         <v>3.3455293256807989E-2</v>
@@ -12084,7 +12083,7 @@
         <v>29</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E536">
         <v>5.1871704669599318E-2</v>
@@ -12104,7 +12103,7 @@
         <v>29</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E537">
         <v>7.3339793848968618E-2</v>
@@ -12124,7 +12123,7 @@
         <v>29</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E538">
         <v>0.11738452502588063</v>
@@ -12144,7 +12143,7 @@
         <v>29</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E539">
         <v>5.1788132860726289E-2</v>
@@ -12164,7 +12163,7 @@
         <v>29</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E540">
         <v>8.0075897696410922E-2</v>
@@ -12184,7 +12183,7 @@
         <v>29</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E541">
         <v>4.0018561615932945E-2</v>
@@ -12204,7 +12203,7 @@
         <v>29</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E542">
         <v>6.3202049924824602E-2</v>
@@ -12224,7 +12223,7 @@
         <v>29</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E543">
         <v>3.0100690584360858E-2</v>
@@ -12244,7 +12243,7 @@
         <v>29</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E544">
         <v>3.2623746616962761E-2</v>
@@ -12264,7 +12263,7 @@
         <v>29</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E545">
         <v>1.8648614179065302E-2</v>
@@ -12284,7 +12283,7 @@
         <v>29</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E546">
         <v>3.9038138452127322E-2</v>
@@ -12304,7 +12303,7 @@
         <v>29</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E547">
         <v>6.1177879961895623E-2</v>
@@ -12324,7 +12323,7 @@
         <v>29</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E548">
         <v>2.3623878528135672E-2</v>
@@ -12344,7 +12343,7 @@
         <v>29</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E549">
         <v>6.5224747113997825E-2</v>
@@ -12364,7 +12363,7 @@
         <v>29</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E550">
         <v>3.5938599817953873E-2</v>
@@ -12384,7 +12383,7 @@
         <v>29</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E551">
         <v>1.9444661912222133E-2</v>
@@ -12404,7 +12403,7 @@
         <v>29</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E552">
         <v>2.8433790466639887E-2</v>
@@ -12424,7 +12423,7 @@
         <v>29</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E553">
         <v>2.7642017220598579E-2</v>
